--- a/Appumo - Нелдера-Міда.xlsx
+++ b/Appumo - Нелдера-Міда.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,6 +768,286 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>[-0.0122833251953125, -2.1204681396484375]</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>-23.97361655031721</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>[[-0.01959228515625, -2.32879638671875], [0.126708984375, -2.434326171875], [-0.078125, -1.859375]]</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>[-23.97361655031721, -23.94159592093266, -23.803403778748372]</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>[0.055385589599609375, -2.329479217529297]</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>-23.97819875619163</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>[[-0.0122833251953125, -2.1204681396484375], [-0.01959228515625, -2.32879638671875], [0.126708984375, -2.434326171875]]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[-23.978198756191627, -23.97361655031721, -23.94159592093266]</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>[0.0009794235229492188, -2.2768850326538086]</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>-23.98790540921288</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>[[0.055385589599609375, -2.329479217529297], [-0.0122833251953125, -2.1204681396484375], [-0.01959228515625, -2.32879638671875]]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[-23.98790540921288, -23.978198756191627, -23.97361655031721]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>[0.007949590682983398, -2.211825132369995]</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>-23.99682304840074</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>[[0.0009794235229492188, -2.2768850326538086], [0.055385589599609375, -2.329479217529297], [-0.0122833251953125, -2.1204681396484375]]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[-23.996823048400742, -23.98790540921288, -23.978198756191627]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>[0.029925048351287842, -2.2869171500205994]</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>-23.9977377061768</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>[[0.007949590682983398, -2.211825132369995], [0.0009794235229492188, -2.2768850326538086], [0.055385589599609375, -2.329479217529297]]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>[-23.9977377061768, -23.996823048400742, -23.98790540921288]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>[-0.04645657539367676, -2.159230947494507]</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>-23.9977377061768</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>[[0.007949590682983398, -2.211825132369995], [0.0009794235229492188, -2.2768850326538086], [0.029925048351287842, -2.2869171500205994]]</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[-23.9977377061768, -23.996823048400742, -23.996437836499]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>[-0.020996034145355225, -2.2017930150032043]</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>-23.9977377061768</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>[[0.007949590682983398, -2.211825132369995], [0.0009794235229492188, -2.2768850326538086], [-0.04645657539367676, -2.159230947494507]]</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>[-23.9977377061768, -23.996823048400742, -23.99167941576326]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>[-0.002771899104118347, -2.241847053170204]</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>-23.99832483977419</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>[[-0.020996034145355225, -2.2017930150032043], [0.007949590682983398, -2.211825132369995], [0.0009794235229492188, -2.2768850326538086]]</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[-23.998324839774188, -23.9977377061768, -23.996823048400742]</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>[-0.0019671879708766937, -2.2168225832283497]</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>-23.99983071138688</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>[[-0.002771899104118347, -2.241847053170204], [-0.020996034145355225, -2.2017930150032043], [0.007949590682983398, -2.211825132369995]]</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[-23.99983071138688, -23.998324839774188, -23.9977377061768]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Нелдера-Міда</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>[-0.011682788841426373, -2.2155639166012406]</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>-23.99983071138688</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>[[-0.002771899104118347, -2.241847053170204], [-0.0019671879708766937, -2.2168225832283497], [-0.020996034145355225, -2.2017930150032043]]</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[-23.99983071138688, -23.999391317688534, -23.998324839774188]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
